--- a/UnitedAirlineData.xlsx
+++ b/UnitedAirlineData.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26606"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ola.ajala/Desktop/OwnProject/CompleteAutomationBootCamp/datadrivenframework/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800" tabRatio="500"/>
+    <workbookView xWindow="11340" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>from</t>
   </si>
@@ -42,16 +48,61 @@
     <t>flightclass</t>
   </si>
   <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>are</t>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>Dulles</t>
+  </si>
+  <si>
+    <t>San Fransisco</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>SearchTypeMain_roundTrip</t>
+  </si>
+  <si>
+    <t>SearchTypeMain_oneWay</t>
+  </si>
+  <si>
+    <t>Business or First</t>
+  </si>
+  <si>
+    <t>Apr 4, 2019</t>
+  </si>
+  <si>
+    <t>May 21, 2019</t>
+  </si>
+  <si>
+    <t>May 12, 2019</t>
+  </si>
+  <si>
+    <t>Jun 8, 2019</t>
+  </si>
+  <si>
+    <t>Jul 19, 2018</t>
+  </si>
+  <si>
+    <t>Sep 16, 2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -61,12 +112,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,14 +138,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -414,51 +480,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4">
+        <v>43332</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43362</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43382</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43414</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43412</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43445</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/UnitedAirlineData.xlsx
+++ b/UnitedAirlineData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>from</t>
   </si>
@@ -93,7 +93,7 @@
     <t>Jul 19, 2018</t>
   </si>
   <si>
-    <t>Sep 16, 2018</t>
+    <t>Sep 20, 2018</t>
   </si>
 </sst>
 </file>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,10 +603,10 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" customWidth="1"/>
     <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,10 +623,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -642,11 +645,14 @@
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -662,11 +668,14 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -674,7 +683,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>21</v>
@@ -682,7 +691,10 @@
       <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
         <v>9</v>
       </c>
     </row>

--- a/UnitedAirlineData.xlsx
+++ b/UnitedAirlineData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26606"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ola.ajala/Desktop/OwnProject/CompleteAutomationBootCamp/datadrivenframework/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,10 +85,10 @@
     <t>Jun 8, 2019</t>
   </si>
   <si>
-    <t>Jul 19, 2018</t>
-  </si>
-  <si>
-    <t>Sep 20, 2018</t>
+    <t>Sydney, NSW, AU (SYD)</t>
+  </si>
+  <si>
+    <t>Los Angeles, CA, US (LAX - All Airports)</t>
   </si>
 </sst>
 </file>
@@ -101,12 +96,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,17 +146,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -486,14 +505,14 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -539,7 +558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -562,7 +581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -587,6 +606,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -595,18 +619,19 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" customWidth="1"/>
     <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -652,7 +677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -675,21 +700,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -700,5 +725,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/UnitedAirlineData.xlsx
+++ b/UnitedAirlineData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26606"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ola.ajala/Desktop/OwnProject/CompleteAutomationBootCamp/datadrivenframework/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-5120" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>from</t>
   </si>
@@ -89,6 +94,18 @@
   </si>
   <si>
     <t>Los Angeles, CA, US (LAX - All Airports)</t>
+  </si>
+  <si>
+    <t>Chicago, IL, US (CHI - All Airports)</t>
+  </si>
+  <si>
+    <t>New York, NY, US (NYC - All Airports)</t>
+  </si>
+  <si>
+    <t>Washington, DC, US (IAD - Dulles)</t>
+  </si>
+  <si>
+    <t>San Francisco, CA, US (SFO)</t>
   </si>
 </sst>
 </file>
@@ -505,14 +522,14 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -558,7 +575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -581,7 +598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -606,11 +623,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -619,19 +631,19 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
     <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,12 +666,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -677,12 +689,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -700,7 +712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -725,10 +737,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>